--- a/صيدليات دكتور مصطفي طلعت_2026-01-09_16-30.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-09_16-30.xlsx
@@ -110,6 +110,9 @@
     <t>DEXAMETHASONE INAD PHARMA 3 AMP</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
@@ -179,6 +182,12 @@
     <t>PENDULINE كريم ب زبدة الشيا</t>
   </si>
   <si>
+    <t>POWER B COMPLEX I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
     <t>RESTOHERB SYRUP</t>
   </si>
   <si>
@@ -227,6 +236,12 @@
     <t>5:0</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -234,6 +249,12 @@
   </si>
   <si>
     <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>محلول رينجر</t>
   </si>
   <si>
     <t>Friday, 9 January, 2026 4:30 PM</t>
@@ -1242,13 +1263,13 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
@@ -1260,7 +1281,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1268,17 +1289,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1294,17 +1315,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1312,7 +1333,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1320,17 +1341,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1338,7 +1359,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1346,17 +1367,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1372,17 +1393,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1398,17 +1419,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>177</v>
+        <v>90</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1424,17 +1445,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>14.25</v>
+        <v>177</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1450,17 +1471,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>78</v>
+        <v>14.25</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1476,17 +1497,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>27.440000000000001</v>
+        <v>78</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1502,17 +1523,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>57</v>
+        <v>27.440000000000001</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1520,7 +1541,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1528,17 +1549,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1554,17 +1575,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1580,17 +1601,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1606,13 +1627,13 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
@@ -1632,17 +1653,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1658,7 +1679,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
@@ -1668,7 +1689,7 @@
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1676,7 +1697,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1684,17 +1705,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>160.05000000000001</v>
+        <v>27</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1710,13 +1731,13 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>45</v>
+        <v>160.05000000000001</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
@@ -1728,7 +1749,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1736,17 +1757,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>86.5</v>
+        <v>8</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1762,13 +1783,13 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
@@ -1780,7 +1801,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1788,17 +1809,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>62</v>
+        <v>86.5</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1806,7 +1827,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1820,11 +1841,11 @@
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>282</v>
+        <v>67</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>54</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1832,7 +1853,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1840,13 +1861,13 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>30.5</v>
+        <v>62</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
@@ -1858,7 +1879,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1872,11 +1893,11 @@
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>60</v>
+        <v>282</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -1884,7 +1905,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1892,17 +1913,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>123</v>
+        <v>30.5</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -1910,7 +1931,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1918,13 +1939,13 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
@@ -1936,7 +1957,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -1944,17 +1965,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>26.100000000000001</v>
+        <v>123</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -1962,7 +1983,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -1970,13 +1991,13 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
@@ -1996,17 +2017,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>94.5</v>
+        <v>26.100000000000001</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2028,7 +2049,7 @@
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
@@ -2048,17 +2069,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>12</v>
+        <v>94.5</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>57</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2066,7 +2087,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2074,13 +2095,13 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
@@ -2088,37 +2109,167 @@
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
-      <c r="K53" s="10">
-        <v>3250.4899999999998</v>
-      </c>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
-    </row>
-    <row r="54" ht="17.25" customHeight="1">
-      <c t="s" r="A54" s="11">
+      <c r="A53" s="6">
+        <v>50</v>
+      </c>
+      <c t="s" r="B53" s="7">
         <v>75</v>
       </c>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c t="s" r="F54" s="12">
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c t="s" r="H53" s="8">
         <v>76</v>
       </c>
-      <c r="G54" s="12"/>
-      <c r="H54" s="13"/>
-      <c t="s" r="I54" s="14">
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="9">
+        <v>20</v>
+      </c>
+      <c r="M53" s="9"/>
+      <c t="s" r="N53" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" ht="24.75" customHeight="1">
+      <c r="A54" s="6">
+        <v>51</v>
+      </c>
+      <c t="s" r="B54" s="7">
         <v>77</v>
       </c>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="14"/>
-      <c r="N54" s="14"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c t="s" r="H54" s="8">
+        <v>78</v>
+      </c>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="9">
+        <v>12</v>
+      </c>
+      <c r="M54" s="9"/>
+      <c t="s" r="N54" s="7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" ht="25.5" customHeight="1">
+      <c r="A55" s="6">
+        <v>52</v>
+      </c>
+      <c t="s" r="B55" s="7">
+        <v>79</v>
+      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c t="s" r="H55" s="8">
+        <v>78</v>
+      </c>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="9">
+        <v>4</v>
+      </c>
+      <c r="M55" s="9"/>
+      <c t="s" r="N55" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" ht="24.75" customHeight="1">
+      <c r="A56" s="6">
+        <v>53</v>
+      </c>
+      <c t="s" r="B56" s="7">
+        <v>80</v>
+      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c t="s" r="H56" s="8">
+        <v>78</v>
+      </c>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="9">
+        <v>15</v>
+      </c>
+      <c r="M56" s="9"/>
+      <c t="s" r="N56" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="6">
+        <v>54</v>
+      </c>
+      <c t="s" r="B57" s="7">
+        <v>81</v>
+      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c t="s" r="H57" s="8">
+        <v>74</v>
+      </c>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="9">
+        <v>24</v>
+      </c>
+      <c r="M57" s="9"/>
+      <c t="s" r="N57" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" ht="25.5" customHeight="1">
+      <c r="K58" s="10">
+        <v>3331.4899999999998</v>
+      </c>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+    </row>
+    <row r="59" ht="17.25" customHeight="1">
+      <c t="s" r="A59" s="11">
+        <v>82</v>
+      </c>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c t="s" r="F59" s="12">
+        <v>83</v>
+      </c>
+      <c r="G59" s="12"/>
+      <c r="H59" s="13"/>
+      <c t="s" r="I59" s="14">
+        <v>84</v>
+      </c>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="14"/>
+      <c r="N59" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="158">
+  <mergeCells count="173">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2273,10 +2424,25 @@
     <mergeCell ref="B52:G52"/>
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="A54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="I54:N54"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="I59:N59"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
